--- a/data/Behavioral/description/CTOPP.xlsx
+++ b/data/Behavioral/description/CTOPP.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28410"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Healthy Brain Network\Data Sharing\Data Dictionaries\Public Data Dictionaries\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/Research/Healthy Brain Network/Data Sharing/Data Dictionaries/Public Data Dictionaries/all_data_dicts_Jan_2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="6720" windowWidth="18885" windowHeight="9345" tabRatio="500"/>
+    <workbookView xWindow="11900" yWindow="800" windowWidth="26360" windowHeight="16700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,101 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="72">
-  <si>
-    <t>complete</t>
-  </si>
-  <si>
-    <t>EL_raw</t>
-  </si>
-  <si>
-    <t>EL_percentile</t>
-  </si>
-  <si>
-    <t>EL_scaled</t>
-  </si>
-  <si>
-    <t>EL_desc</t>
-  </si>
-  <si>
-    <t>BW_raw</t>
-  </si>
-  <si>
-    <t>BW_percentile</t>
-  </si>
-  <si>
-    <t>BW_scaled</t>
-  </si>
-  <si>
-    <t>BW_desc</t>
-  </si>
-  <si>
-    <t>NR_raw</t>
-  </si>
-  <si>
-    <t>NR_percentile</t>
-  </si>
-  <si>
-    <t>NR_scaled</t>
-  </si>
-  <si>
-    <t>NR_desc</t>
-  </si>
-  <si>
-    <t>RD_raw</t>
-  </si>
-  <si>
-    <t>RD_percentile</t>
-  </si>
-  <si>
-    <t>RD_scaled</t>
-  </si>
-  <si>
-    <t>RD_desc</t>
-  </si>
-  <si>
-    <t>RL_raw</t>
-  </si>
-  <si>
-    <t>RL_percentile</t>
-  </si>
-  <si>
-    <t>RL_scaled</t>
-  </si>
-  <si>
-    <t>RL_desc</t>
-  </si>
-  <si>
-    <t>RO_raw</t>
-  </si>
-  <si>
-    <t>RO_percentile</t>
-  </si>
-  <si>
-    <t>RO_scaled</t>
-  </si>
-  <si>
-    <t>RO_desc</t>
-  </si>
-  <si>
-    <t>RSN_sum</t>
-  </si>
-  <si>
-    <t>RSN_percentile</t>
-  </si>
-  <si>
-    <t>RSN_composite</t>
-  </si>
-  <si>
-    <t>RSN_desc</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="78">
   <si>
     <t>CTOPP Complete?</t>
   </si>
   <si>
-    <t>incomplete_reason</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reason Incomplete </t>
   </si>
   <si>
@@ -240,13 +153,124 @@
   </si>
   <si>
     <t>Comprehensive Test of Phonological Processing (CTOPP-2)</t>
+  </si>
+  <si>
+    <t>CTOPP_Complete</t>
+  </si>
+  <si>
+    <t>CTOPP_Incomplete_Reason</t>
+  </si>
+  <si>
+    <t>CTOPP_Valid</t>
+  </si>
+  <si>
+    <t>CTOPP_Invalid_Reason</t>
+  </si>
+  <si>
+    <t>Was administration of CTOPP valid?</t>
+  </si>
+  <si>
+    <t>If invalid, for what reason?</t>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
+    <t>0=Did not follow rules
+1=Behavioral issues
+2=Already tested
+3=Other</t>
+  </si>
+  <si>
+    <t>CTOPP_EL_R</t>
+  </si>
+  <si>
+    <t>CTOPP_EL_P</t>
+  </si>
+  <si>
+    <t>CTOPP_EL_S</t>
+  </si>
+  <si>
+    <t>CTOPP_EL_D</t>
+  </si>
+  <si>
+    <t>CTOPP_BW_R</t>
+  </si>
+  <si>
+    <t>CTOPP_BW_P</t>
+  </si>
+  <si>
+    <t>CTOPP_BW_S</t>
+  </si>
+  <si>
+    <t>CTOPP_BW_D</t>
+  </si>
+  <si>
+    <t>CTOPP_NR_R</t>
+  </si>
+  <si>
+    <t>CTOPP_NR_P</t>
+  </si>
+  <si>
+    <t>CTOPP_NR_S</t>
+  </si>
+  <si>
+    <t>CTOPP_NR_D</t>
+  </si>
+  <si>
+    <t>CTOPP_RD_R</t>
+  </si>
+  <si>
+    <t>CTOPP_RD_P</t>
+  </si>
+  <si>
+    <t>CTOPP_RD_S</t>
+  </si>
+  <si>
+    <t>CTOPP_RD_D</t>
+  </si>
+  <si>
+    <t>CTOPP_RL_R</t>
+  </si>
+  <si>
+    <t>CTOPP_RL_P</t>
+  </si>
+  <si>
+    <t>CTOPP_RL_S</t>
+  </si>
+  <si>
+    <t>CTOPP_RL_D</t>
+  </si>
+  <si>
+    <t>CTOPP_RO_R</t>
+  </si>
+  <si>
+    <t>CTOPP_RO_P</t>
+  </si>
+  <si>
+    <t>CTOPP_RO_S</t>
+  </si>
+  <si>
+    <t>CTOPP_RO_D</t>
+  </si>
+  <si>
+    <t>CTOPP_RSN_Sum</t>
+  </si>
+  <si>
+    <t>CTOPP_RSN_P</t>
+  </si>
+  <si>
+    <t>CTOPP_RSN_Comp</t>
+  </si>
+  <si>
+    <t>CTOPP_RSN_D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -279,17 +303,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color rgb="FF0067A0"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -397,16 +415,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="61">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -806,420 +827,449 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B8" sqref="B8:B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="65" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="D35" t="s">
         <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>